--- a/股票筛选结果.xlsx
+++ b/股票筛选结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -85,121 +85,214 @@
     <t>code</t>
   </si>
   <si>
-    <t>300235</t>
-  </si>
-  <si>
-    <t>300437</t>
-  </si>
-  <si>
-    <t>002808</t>
-  </si>
-  <si>
-    <t>002734</t>
-  </si>
-  <si>
-    <t>603977</t>
-  </si>
-  <si>
-    <t>603798</t>
+    <t>603006</t>
+  </si>
+  <si>
+    <t>603088</t>
+  </si>
+  <si>
+    <t>603161</t>
+  </si>
+  <si>
+    <t>603878</t>
+  </si>
+  <si>
+    <t>603988</t>
   </si>
   <si>
     <t>603727</t>
   </si>
   <si>
-    <t>603611</t>
-  </si>
-  <si>
-    <t>603520</t>
+    <t>300423</t>
   </si>
   <si>
     <t>603313</t>
   </si>
   <si>
-    <t>603067</t>
-  </si>
-  <si>
-    <t>300464</t>
-  </si>
-  <si>
-    <t>300414</t>
-  </si>
-  <si>
-    <t>300174</t>
-  </si>
-  <si>
-    <t>300446</t>
-  </si>
-  <si>
-    <t>300517</t>
-  </si>
-  <si>
-    <t>603022</t>
-  </si>
-  <si>
-    <t>002810</t>
-  </si>
-  <si>
-    <t>300445</t>
-  </si>
-  <si>
-    <t>方直科技</t>
-  </si>
-  <si>
-    <t>清水源</t>
-  </si>
-  <si>
-    <t>苏州恒久</t>
-  </si>
-  <si>
-    <t>利民股份</t>
-  </si>
-  <si>
-    <t>国泰集团</t>
-  </si>
-  <si>
-    <t>康普顿</t>
+    <t>603701</t>
+  </si>
+  <si>
+    <t>603768</t>
+  </si>
+  <si>
+    <t>603101</t>
+  </si>
+  <si>
+    <t>603278</t>
+  </si>
+  <si>
+    <t>603268</t>
+  </si>
+  <si>
+    <t>603158</t>
+  </si>
+  <si>
+    <t>603586</t>
+  </si>
+  <si>
+    <t>603585</t>
+  </si>
+  <si>
+    <t>603507</t>
+  </si>
+  <si>
+    <t>603936</t>
+  </si>
+  <si>
+    <t>603856</t>
+  </si>
+  <si>
+    <t>603041</t>
+  </si>
+  <si>
+    <t>603926</t>
+  </si>
+  <si>
+    <t>603398</t>
+  </si>
+  <si>
+    <t>603309</t>
+  </si>
+  <si>
+    <t>603226</t>
+  </si>
+  <si>
+    <t>603033</t>
+  </si>
+  <si>
+    <t>300424</t>
+  </si>
+  <si>
+    <t>002870</t>
+  </si>
+  <si>
+    <t>603199</t>
+  </si>
+  <si>
+    <t>603059</t>
+  </si>
+  <si>
+    <t>603630</t>
+  </si>
+  <si>
+    <t>603037</t>
+  </si>
+  <si>
+    <t>联明股份</t>
+  </si>
+  <si>
+    <t>宁波精达</t>
+  </si>
+  <si>
+    <t>科华控股</t>
+  </si>
+  <si>
+    <t>武进不锈</t>
+  </si>
+  <si>
+    <t>中电电机</t>
   </si>
   <si>
     <t>博迈科</t>
   </si>
   <si>
-    <t>诺力股份</t>
-  </si>
-  <si>
-    <t>司太立</t>
+    <t>鲁亿通</t>
   </si>
   <si>
     <t>梦百合</t>
   </si>
   <si>
-    <t>振华股份</t>
-  </si>
-  <si>
-    <t>星徽精密</t>
-  </si>
-  <si>
-    <t>中光防雷</t>
-  </si>
-  <si>
-    <t>元力股份</t>
-  </si>
-  <si>
-    <t>乐凯新材</t>
-  </si>
-  <si>
-    <t>海波重科</t>
-  </si>
-  <si>
-    <t>新通联</t>
-  </si>
-  <si>
-    <t>山东赫达</t>
-  </si>
-  <si>
-    <t>康斯特</t>
-  </si>
-  <si>
-    <t>软件服务</t>
+    <t>德宏股份</t>
+  </si>
+  <si>
+    <t>常青股份</t>
+  </si>
+  <si>
+    <t>汇嘉时代</t>
+  </si>
+  <si>
+    <t>大业股份</t>
+  </si>
+  <si>
+    <t>松发股份</t>
+  </si>
+  <si>
+    <t>腾龙股份</t>
+  </si>
+  <si>
+    <t>金麒麟</t>
+  </si>
+  <si>
+    <t>苏利股份</t>
+  </si>
+  <si>
+    <t>振江股份</t>
+  </si>
+  <si>
+    <t>博敏电子</t>
+  </si>
+  <si>
+    <t>东宏股份</t>
+  </si>
+  <si>
+    <t>美思德</t>
+  </si>
+  <si>
+    <t>铁流股份</t>
+  </si>
+  <si>
+    <t>邦宝益智</t>
+  </si>
+  <si>
+    <t>维力医疗</t>
+  </si>
+  <si>
+    <t>菲林格尔</t>
+  </si>
+  <si>
+    <t>三维股份</t>
+  </si>
+  <si>
+    <t>航新科技</t>
+  </si>
+  <si>
+    <t>香山股份</t>
+  </si>
+  <si>
+    <t>九华旅游</t>
+  </si>
+  <si>
+    <t>倍加洁</t>
+  </si>
+  <si>
+    <t>拉芳家化</t>
+  </si>
+  <si>
+    <t>凯众股份</t>
+  </si>
+  <si>
+    <t>汽车配件</t>
+  </si>
+  <si>
+    <t>专用机械</t>
+  </si>
+  <si>
+    <t>钢加工</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>石油开采</t>
+  </si>
+  <si>
+    <t>家居用品</t>
+  </si>
+  <si>
+    <t>百货</t>
+  </si>
+  <si>
+    <t>陶瓷</t>
   </si>
   <si>
     <t>化工原料</t>
@@ -208,76 +301,52 @@
     <t>元器件</t>
   </si>
   <si>
-    <t>农药化肥</t>
-  </si>
-  <si>
-    <t>石油加工</t>
-  </si>
-  <si>
-    <t>石油开采</t>
-  </si>
-  <si>
-    <t>运输设备</t>
-  </si>
-  <si>
-    <t>化学制药</t>
-  </si>
-  <si>
-    <t>家居用品</t>
-  </si>
-  <si>
-    <t>机械基件</t>
-  </si>
-  <si>
-    <t>建筑施工</t>
-  </si>
-  <si>
-    <t>广告包装</t>
+    <t>塑料</t>
+  </si>
+  <si>
+    <t>文教休闲</t>
+  </si>
+  <si>
+    <t>医疗保健</t>
+  </si>
+  <si>
+    <t>橡胶</t>
+  </si>
+  <si>
+    <t>航空</t>
   </si>
   <si>
     <t>电器仪表</t>
   </si>
   <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>河南</t>
+    <t>旅游景点</t>
+  </si>
+  <si>
+    <t>日用化工</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>浙江</t>
   </si>
   <si>
     <t>江苏</t>
   </si>
   <si>
-    <t>江西</t>
+    <t>天津</t>
   </si>
   <si>
     <t>山东</t>
   </si>
   <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>浙江</t>
-  </si>
-  <si>
-    <t>湖北</t>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>新疆</t>
   </si>
   <si>
     <t>广东</t>
-  </si>
-  <si>
-    <t>四川</t>
-  </si>
-  <si>
-    <t>福建</t>
-  </si>
-  <si>
-    <t>河北</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>北京</t>
   </si>
 </sst>
 </file>
@@ -635,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,70 +786,70 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>29.75</v>
       </c>
       <c r="F2">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
       <c r="G2">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="H2">
-        <v>59164.69</v>
+        <v>112177.81</v>
       </c>
       <c r="I2">
-        <v>36000.07</v>
+        <v>54410.42</v>
       </c>
       <c r="J2">
-        <v>9291.690000000001</v>
+        <v>41817.85</v>
       </c>
       <c r="K2">
-        <v>28174.75</v>
+        <v>16755.4</v>
       </c>
       <c r="L2">
-        <v>1.68</v>
+        <v>0.87</v>
       </c>
       <c r="M2">
-        <v>-0.012</v>
+        <v>0.415</v>
       </c>
       <c r="N2">
-        <v>3.43</v>
+        <v>4.6</v>
       </c>
       <c r="O2">
-        <v>4.57</v>
+        <v>3.58</v>
       </c>
       <c r="P2">
-        <v>20110629</v>
+        <v>20140630</v>
       </c>
       <c r="Q2">
-        <v>10708.76</v>
+        <v>51453.85</v>
       </c>
       <c r="R2">
-        <v>0.64</v>
+        <v>2.67</v>
       </c>
       <c r="S2">
-        <v>-14.81</v>
+        <v>0.98</v>
       </c>
       <c r="T2">
-        <v>-141.97</v>
+        <v>-14.59</v>
       </c>
       <c r="U2">
-        <v>67.83</v>
+        <v>21.69</v>
       </c>
       <c r="V2">
-        <v>-5.54</v>
+        <v>11.66</v>
       </c>
       <c r="W2">
-        <v>14753</v>
+        <v>10889</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -788,70 +857,70 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>69.73999999999999</v>
+        <v>76.58</v>
       </c>
       <c r="F3">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G3">
-        <v>2.18</v>
+        <v>0.8</v>
       </c>
       <c r="H3">
-        <v>169580.61</v>
+        <v>72430.8</v>
       </c>
       <c r="I3">
-        <v>83161.13</v>
+        <v>43160.64</v>
       </c>
       <c r="J3">
-        <v>13922.23</v>
+        <v>18095.28</v>
       </c>
       <c r="K3">
-        <v>73416.11</v>
+        <v>23585.03</v>
       </c>
       <c r="L3">
-        <v>3.36</v>
+        <v>2.95</v>
       </c>
       <c r="M3">
-        <v>0.13</v>
+        <v>0.271</v>
       </c>
       <c r="N3">
-        <v>5.45</v>
+        <v>6.03</v>
       </c>
       <c r="O3">
-        <v>3.33</v>
+        <v>4.58</v>
       </c>
       <c r="P3">
-        <v>20150423</v>
+        <v>20141111</v>
       </c>
       <c r="Q3">
-        <v>21212.42</v>
+        <v>14183.8</v>
       </c>
       <c r="R3">
-        <v>0.97</v>
+        <v>1.77</v>
       </c>
       <c r="S3">
-        <v>49.65</v>
+        <v>36.63</v>
       </c>
       <c r="T3">
-        <v>68.78</v>
+        <v>2.86</v>
       </c>
       <c r="U3">
-        <v>30.03</v>
+        <v>34.57</v>
       </c>
       <c r="V3">
-        <v>9.24</v>
+        <v>9.52</v>
       </c>
       <c r="W3">
-        <v>13297</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -859,70 +928,70 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>94.52</v>
+        <v>34.85</v>
       </c>
       <c r="F4">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="G4">
-        <v>1.92</v>
+        <v>1.33</v>
       </c>
       <c r="H4">
-        <v>59432.21</v>
+        <v>174029.09</v>
       </c>
       <c r="I4">
-        <v>46983.3</v>
+        <v>75809.77</v>
       </c>
       <c r="J4">
-        <v>6580.02</v>
+        <v>50636.46</v>
       </c>
       <c r="K4">
-        <v>13162.6</v>
+        <v>23224.47</v>
       </c>
       <c r="L4">
-        <v>0.6899999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="M4">
-        <v>0.08400000000000001</v>
+        <v>0.5820000000000001</v>
       </c>
       <c r="N4">
-        <v>2.74</v>
+        <v>6.29</v>
       </c>
       <c r="O4">
-        <v>5.75</v>
+        <v>4.3</v>
       </c>
       <c r="P4">
-        <v>20160812</v>
+        <v>20180105</v>
       </c>
       <c r="Q4">
-        <v>17243.77</v>
+        <v>26920.22</v>
       </c>
       <c r="R4">
-        <v>0.9</v>
+        <v>2.02</v>
       </c>
       <c r="S4">
-        <v>21.15</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>27.08</v>
+        <v>32.26</v>
       </c>
       <c r="V4">
-        <v>11.37</v>
+        <v>12.35</v>
       </c>
       <c r="W4">
-        <v>17914</v>
+        <v>34092</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -930,70 +999,70 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>28.35</v>
+        <v>26.89</v>
       </c>
       <c r="F5">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
       <c r="G5">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="H5">
-        <v>237361.8</v>
+        <v>248688.45</v>
       </c>
       <c r="I5">
-        <v>118438.17</v>
+        <v>197847.95</v>
       </c>
       <c r="J5">
-        <v>75195.05</v>
+        <v>33155.2</v>
       </c>
       <c r="K5">
-        <v>108572.86</v>
+        <v>106843.51</v>
       </c>
       <c r="L5">
-        <v>6.59</v>
+        <v>5.29</v>
       </c>
       <c r="M5">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="N5">
-        <v>9.800000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="O5">
-        <v>2.77</v>
+        <v>1.67</v>
       </c>
       <c r="P5">
-        <v>20150127</v>
+        <v>20161219</v>
       </c>
       <c r="Q5">
-        <v>34446.9</v>
+        <v>64158.92</v>
       </c>
       <c r="R5">
-        <v>2.09</v>
+        <v>3.18</v>
       </c>
       <c r="S5">
-        <v>22.87</v>
+        <v>3.22</v>
       </c>
       <c r="T5">
-        <v>33.98</v>
+        <v>4.02</v>
       </c>
       <c r="U5">
-        <v>28.49</v>
+        <v>19.21</v>
       </c>
       <c r="V5">
-        <v>11.95</v>
+        <v>9.08</v>
       </c>
       <c r="W5">
-        <v>15454</v>
+        <v>24308</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1001,70 +1070,70 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>57.23</v>
+        <v>130.33</v>
       </c>
       <c r="F6">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="G6">
-        <v>2.21</v>
+        <v>1.2</v>
       </c>
       <c r="H6">
-        <v>116769.7</v>
+        <v>84765.89999999999</v>
       </c>
       <c r="I6">
-        <v>42214.25</v>
+        <v>69077.21000000001</v>
       </c>
       <c r="J6">
-        <v>47737.4</v>
+        <v>5829.64</v>
       </c>
       <c r="K6">
-        <v>36028.32</v>
+        <v>32804.26</v>
       </c>
       <c r="L6">
-        <v>1.63</v>
+        <v>2.73</v>
       </c>
       <c r="M6">
-        <v>0.147</v>
+        <v>0.201</v>
       </c>
       <c r="N6">
-        <v>4.13</v>
+        <v>5.48</v>
       </c>
       <c r="O6">
-        <v>4.07</v>
+        <v>6.37</v>
       </c>
       <c r="P6">
-        <v>20161111</v>
+        <v>20141104</v>
       </c>
       <c r="Q6">
-        <v>27967.15</v>
+        <v>22334.89</v>
       </c>
       <c r="R6">
-        <v>1.27</v>
+        <v>1.86</v>
       </c>
       <c r="S6">
-        <v>13.92</v>
+        <v>20.33</v>
       </c>
       <c r="T6">
-        <v>-39.62</v>
+        <v>-2.1</v>
       </c>
       <c r="U6">
-        <v>44.41</v>
+        <v>32.44</v>
       </c>
       <c r="V6">
-        <v>14</v>
+        <v>11.55</v>
       </c>
       <c r="W6">
-        <v>24459</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1072,70 +1141,70 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E7">
-        <v>34.05</v>
+        <v>46.59</v>
       </c>
       <c r="F7">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="H7">
-        <v>95505.06</v>
+        <v>294552.41</v>
       </c>
       <c r="I7">
-        <v>55909.95</v>
+        <v>183454.31</v>
       </c>
       <c r="J7">
-        <v>7530.8</v>
+        <v>84723.3</v>
       </c>
       <c r="K7">
-        <v>26247.93</v>
+        <v>149319.11</v>
       </c>
       <c r="L7">
-        <v>1.31</v>
+        <v>6.38</v>
       </c>
       <c r="M7">
-        <v>0.377</v>
+        <v>0.327</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>10.23</v>
       </c>
       <c r="O7">
-        <v>6.42</v>
+        <v>1.99</v>
       </c>
       <c r="P7">
-        <v>20160406</v>
+        <v>20161122</v>
       </c>
       <c r="Q7">
-        <v>29492.7</v>
+        <v>63272.36</v>
       </c>
       <c r="R7">
-        <v>1.47</v>
+        <v>2.7</v>
       </c>
       <c r="S7">
-        <v>23.29</v>
+        <v>-83.06</v>
       </c>
       <c r="T7">
-        <v>28.07</v>
+        <v>-63.25</v>
       </c>
       <c r="U7">
-        <v>34.42</v>
+        <v>13.98</v>
       </c>
       <c r="V7">
-        <v>15.5</v>
+        <v>18.89</v>
       </c>
       <c r="W7">
-        <v>12296</v>
+        <v>30745</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1143,70 +1212,70 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E8">
-        <v>36.16</v>
+        <v>196.31</v>
       </c>
       <c r="F8">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G8">
-        <v>2.34</v>
+        <v>1.6</v>
       </c>
       <c r="H8">
-        <v>295199.5</v>
+        <v>67273.05</v>
       </c>
       <c r="I8">
-        <v>181918.2</v>
+        <v>50813.35</v>
       </c>
       <c r="J8">
-        <v>86570.55</v>
+        <v>7034.06</v>
       </c>
       <c r="K8">
-        <v>149319.11</v>
+        <v>24560.9</v>
       </c>
       <c r="L8">
-        <v>6.38</v>
+        <v>1.53</v>
       </c>
       <c r="M8">
-        <v>0.403</v>
+        <v>0.15</v>
       </c>
       <c r="N8">
-        <v>10.31</v>
+        <v>4.26</v>
       </c>
       <c r="O8">
-        <v>2.82</v>
+        <v>6.25</v>
       </c>
       <c r="P8">
-        <v>20161122</v>
+        <v>20150217</v>
       </c>
       <c r="Q8">
-        <v>65032.13</v>
+        <v>17972.22</v>
       </c>
       <c r="R8">
-        <v>2.78</v>
+        <v>1.12</v>
       </c>
       <c r="S8">
-        <v>-62.27</v>
+        <v>27.77</v>
       </c>
       <c r="T8">
-        <v>-6.32</v>
+        <v>16.45</v>
       </c>
       <c r="U8">
-        <v>27.14</v>
+        <v>31.2</v>
       </c>
       <c r="V8">
-        <v>21.77</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="W8">
-        <v>33333</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1214,70 +1283,70 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>38.51</v>
+        <v>30.33</v>
       </c>
       <c r="F9">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="G9">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="H9">
-        <v>262291.06</v>
+        <v>219775.45</v>
       </c>
       <c r="I9">
-        <v>169180.27</v>
+        <v>146413.59</v>
       </c>
       <c r="J9">
-        <v>24934.95</v>
+        <v>47487.96</v>
       </c>
       <c r="K9">
-        <v>76280.55</v>
+        <v>89032.56</v>
       </c>
       <c r="L9">
-        <v>3.99</v>
+        <v>3.71</v>
       </c>
       <c r="M9">
-        <v>0.34</v>
+        <v>0.604</v>
       </c>
       <c r="N9">
-        <v>7.97</v>
+        <v>6.32</v>
       </c>
       <c r="O9">
-        <v>3.16</v>
+        <v>3.86</v>
       </c>
       <c r="P9">
-        <v>20150128</v>
+        <v>20161013</v>
       </c>
       <c r="Q9">
-        <v>48457.87</v>
+        <v>32295.94</v>
       </c>
       <c r="R9">
-        <v>2.53</v>
+        <v>1.35</v>
       </c>
       <c r="S9">
-        <v>60.18</v>
+        <v>35.87</v>
       </c>
       <c r="T9">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="U9">
-        <v>23.46</v>
+        <v>30.72</v>
       </c>
       <c r="V9">
-        <v>6.29</v>
+        <v>8.74</v>
       </c>
       <c r="W9">
-        <v>13994</v>
+        <v>25899</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1285,70 +1354,70 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E10">
-        <v>32.4</v>
+        <v>26.7</v>
       </c>
       <c r="F10">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="G10">
         <v>1.2</v>
       </c>
       <c r="H10">
-        <v>204218.31</v>
+        <v>79539.86</v>
       </c>
       <c r="I10">
-        <v>83802.5</v>
+        <v>50979.65</v>
       </c>
       <c r="J10">
-        <v>65459.38</v>
+        <v>19843.01</v>
       </c>
       <c r="K10">
-        <v>45597.76</v>
+        <v>24439.14</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>2.04</v>
       </c>
       <c r="M10">
-        <v>0.454</v>
+        <v>0.4970000000000001</v>
       </c>
       <c r="N10">
-        <v>6.9</v>
+        <v>4.76</v>
       </c>
       <c r="O10">
-        <v>4.26</v>
+        <v>3.71</v>
       </c>
       <c r="P10">
-        <v>20160309</v>
+        <v>20160412</v>
       </c>
       <c r="Q10">
-        <v>21150.25</v>
+        <v>19661.53</v>
       </c>
       <c r="R10">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="S10">
-        <v>10.82</v>
+        <v>19.62</v>
       </c>
       <c r="T10">
-        <v>16.6</v>
+        <v>13.39</v>
       </c>
       <c r="U10">
-        <v>37.92</v>
+        <v>33.06</v>
       </c>
       <c r="V10">
-        <v>13.72</v>
+        <v>16.2</v>
       </c>
       <c r="W10">
-        <v>15507</v>
+        <v>13691</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1356,70 +1425,70 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E11">
-        <v>31.37</v>
+        <v>28.11</v>
       </c>
       <c r="F11">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="G11">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="H11">
-        <v>208235.3</v>
+        <v>235718.67</v>
       </c>
       <c r="I11">
-        <v>144002.56</v>
+        <v>138211.31</v>
       </c>
       <c r="J11">
-        <v>47008.15</v>
+        <v>69454.38</v>
       </c>
       <c r="K11">
-        <v>89032.56</v>
+        <v>79663.78</v>
       </c>
       <c r="L11">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="M11">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="N11">
-        <v>6.2</v>
+        <v>7.94</v>
       </c>
       <c r="O11">
-        <v>4.77</v>
+        <v>2.06</v>
       </c>
       <c r="P11">
-        <v>20161013</v>
+        <v>20170324</v>
       </c>
       <c r="Q11">
-        <v>29113.77</v>
+        <v>56970.44</v>
       </c>
       <c r="R11">
-        <v>1.21</v>
+        <v>2.79</v>
       </c>
       <c r="S11">
-        <v>34.63</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>40.28</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>31.77</v>
+        <v>19.71</v>
       </c>
       <c r="V11">
-        <v>10.85</v>
+        <v>6.67</v>
       </c>
       <c r="W11">
-        <v>29099</v>
+        <v>24798</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1427,70 +1496,70 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E12">
-        <v>42.45</v>
+        <v>24.3</v>
       </c>
       <c r="F12">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="G12">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H12">
-        <v>118631.32</v>
+        <v>212016.34</v>
       </c>
       <c r="I12">
-        <v>57794.98</v>
+        <v>46711.28</v>
       </c>
       <c r="J12">
-        <v>56534.66</v>
+        <v>80798.71000000001</v>
       </c>
       <c r="K12">
-        <v>41171.1</v>
+        <v>43718.01</v>
       </c>
       <c r="L12">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="M12">
-        <v>0.231</v>
+        <v>0.392</v>
       </c>
       <c r="N12">
-        <v>4.86</v>
+        <v>5.35</v>
       </c>
       <c r="O12">
-        <v>4.03</v>
+        <v>2.37</v>
       </c>
       <c r="P12">
-        <v>20160913</v>
+        <v>20160506</v>
       </c>
       <c r="Q12">
-        <v>39110.18</v>
+        <v>57169.38</v>
       </c>
       <c r="R12">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="S12">
-        <v>30.02</v>
+        <v>10.84</v>
       </c>
       <c r="T12">
-        <v>10.4</v>
+        <v>55.46</v>
       </c>
       <c r="U12">
-        <v>26.49</v>
+        <v>16.84</v>
       </c>
       <c r="V12">
-        <v>9.51</v>
+        <v>4.44</v>
       </c>
       <c r="W12">
-        <v>25463</v>
+        <v>23329</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1498,70 +1567,70 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E13">
-        <v>83.55</v>
+        <v>27.18</v>
       </c>
       <c r="F13">
-        <v>0.92</v>
+        <v>0.52</v>
       </c>
       <c r="G13">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H13">
-        <v>101930.06</v>
+        <v>216758.77</v>
       </c>
       <c r="I13">
-        <v>45107.01</v>
+        <v>140901.38</v>
       </c>
       <c r="J13">
-        <v>35297.85</v>
+        <v>59568.61</v>
       </c>
       <c r="K13">
-        <v>12772.44</v>
+        <v>6424.37</v>
       </c>
       <c r="L13">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
       <c r="M13">
-        <v>0.066</v>
+        <v>0.518</v>
       </c>
       <c r="N13">
-        <v>2.44</v>
+        <v>4.29</v>
       </c>
       <c r="O13">
-        <v>4.55</v>
+        <v>4.37</v>
       </c>
       <c r="P13">
-        <v>20150610</v>
+        <v>20171113</v>
       </c>
       <c r="Q13">
-        <v>17113.46</v>
+        <v>41279.73</v>
       </c>
       <c r="R13">
-        <v>0.85</v>
+        <v>1.98</v>
       </c>
       <c r="S13">
-        <v>15.46</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>-21.87</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>23.04</v>
+        <v>18.6</v>
       </c>
       <c r="V13">
-        <v>5.65</v>
+        <v>7.97</v>
       </c>
       <c r="W13">
-        <v>14764</v>
+        <v>52591</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1569,70 +1638,70 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E14">
-        <v>107.42</v>
+        <v>55.74</v>
       </c>
       <c r="F14">
-        <v>0.84</v>
+        <v>0.41</v>
       </c>
       <c r="G14">
-        <v>1.71</v>
+        <v>0.89</v>
       </c>
       <c r="H14">
-        <v>91058.55</v>
+        <v>97128.85000000001</v>
       </c>
       <c r="I14">
-        <v>77423.31</v>
+        <v>39370.5</v>
       </c>
       <c r="J14">
-        <v>6473.56</v>
+        <v>21260.88</v>
       </c>
       <c r="K14">
-        <v>27226.39</v>
+        <v>26452.77</v>
       </c>
       <c r="L14">
-        <v>1.59</v>
+        <v>2.96</v>
       </c>
       <c r="M14">
-        <v>0.115</v>
+        <v>0.359</v>
       </c>
       <c r="N14">
-        <v>4.6</v>
+        <v>6.55</v>
       </c>
       <c r="O14">
-        <v>5.39</v>
+        <v>4.08</v>
       </c>
       <c r="P14">
-        <v>20150513</v>
+        <v>20150319</v>
       </c>
       <c r="Q14">
-        <v>30388.34</v>
+        <v>23357.21</v>
       </c>
       <c r="R14">
-        <v>1.78</v>
+        <v>2.61</v>
       </c>
       <c r="S14">
-        <v>-11.51</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="T14">
-        <v>-46.62</v>
+        <v>20.78</v>
       </c>
       <c r="U14">
-        <v>31.45</v>
+        <v>32.28</v>
       </c>
       <c r="V14">
-        <v>12.21</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="W14">
-        <v>14048</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1640,70 +1709,70 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E15">
-        <v>116.73</v>
+        <v>32.66</v>
       </c>
       <c r="F15">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="G15">
-        <v>2.45</v>
+        <v>2.19</v>
       </c>
       <c r="H15">
-        <v>114612.67</v>
+        <v>136653</v>
       </c>
       <c r="I15">
-        <v>36268.65</v>
+        <v>78635.8</v>
       </c>
       <c r="J15">
-        <v>31838.25</v>
+        <v>27686.99</v>
       </c>
       <c r="K15">
-        <v>14407.8</v>
+        <v>28901.1</v>
       </c>
       <c r="L15">
-        <v>0.59</v>
+        <v>1.32</v>
       </c>
       <c r="M15">
-        <v>0.124</v>
+        <v>0.423</v>
       </c>
       <c r="N15">
-        <v>2.26</v>
+        <v>4.37</v>
       </c>
       <c r="O15">
-        <v>12.77</v>
+        <v>4.21</v>
       </c>
       <c r="P15">
-        <v>20110201</v>
+        <v>20150320</v>
       </c>
       <c r="Q15">
-        <v>14168.98</v>
+        <v>45123.44</v>
       </c>
       <c r="R15">
-        <v>0.58</v>
+        <v>2.06</v>
       </c>
       <c r="S15">
-        <v>26.93</v>
+        <v>19.56</v>
       </c>
       <c r="T15">
-        <v>45.21</v>
+        <v>15.33</v>
       </c>
       <c r="U15">
-        <v>31.23</v>
+        <v>35.87</v>
       </c>
       <c r="V15">
-        <v>7.9</v>
+        <v>14.49</v>
       </c>
       <c r="W15">
-        <v>2941</v>
+        <v>10475</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1711,70 +1780,70 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E16">
-        <v>39.04</v>
+        <v>24.49</v>
       </c>
       <c r="F16">
-        <v>0.76</v>
+        <v>0.53</v>
       </c>
       <c r="G16">
-        <v>1.23</v>
+        <v>2.09</v>
       </c>
       <c r="H16">
-        <v>54871.8</v>
+        <v>271447.72</v>
       </c>
       <c r="I16">
-        <v>40061.26</v>
+        <v>179894.56</v>
       </c>
       <c r="J16">
-        <v>10447.25</v>
+        <v>67281.07000000001</v>
       </c>
       <c r="K16">
-        <v>3560.34</v>
+        <v>123789.72</v>
       </c>
       <c r="L16">
-        <v>0.29</v>
+        <v>5.91</v>
       </c>
       <c r="M16">
-        <v>0.371</v>
+        <v>0.75</v>
       </c>
       <c r="N16">
-        <v>4.12</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="O16">
-        <v>7.03</v>
+        <v>2.26</v>
       </c>
       <c r="P16">
-        <v>20150423</v>
+        <v>20170406</v>
       </c>
       <c r="Q16">
-        <v>30457.94</v>
+        <v>58559.61</v>
       </c>
       <c r="R16">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="S16">
-        <v>-9.07</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-12.83</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>60.94</v>
+        <v>32.06</v>
       </c>
       <c r="V16">
-        <v>38.26</v>
+        <v>12.93</v>
       </c>
       <c r="W16">
-        <v>20616</v>
+        <v>29476</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1782,70 +1851,70 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E17">
-        <v>100.14</v>
+        <v>20.32</v>
       </c>
       <c r="F17">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="G17">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="H17">
-        <v>95897.36</v>
+        <v>195135.81</v>
       </c>
       <c r="I17">
-        <v>71659.53</v>
+        <v>140225.81</v>
       </c>
       <c r="J17">
-        <v>8362.780000000001</v>
+        <v>32102.8</v>
       </c>
       <c r="K17">
-        <v>26467.35</v>
+        <v>72029.06</v>
       </c>
       <c r="L17">
-        <v>2.58</v>
+        <v>4.8</v>
       </c>
       <c r="M17">
-        <v>0.125</v>
+        <v>1.11</v>
       </c>
       <c r="N17">
-        <v>5.81</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="O17">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="P17">
-        <v>20160719</v>
+        <v>20161214</v>
       </c>
       <c r="Q17">
-        <v>19899.25</v>
+        <v>52886.76</v>
       </c>
       <c r="R17">
-        <v>1.94</v>
+        <v>3.53</v>
       </c>
       <c r="S17">
-        <v>-18.6</v>
+        <v>6.25</v>
       </c>
       <c r="T17">
-        <v>-33.37</v>
+        <v>27.65</v>
       </c>
       <c r="U17">
-        <v>24.37</v>
+        <v>36.86</v>
       </c>
       <c r="V17">
-        <v>9.65</v>
+        <v>15.64</v>
       </c>
       <c r="W17">
-        <v>15835</v>
+        <v>14498</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1853,70 +1922,70 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E18">
-        <v>100.03</v>
+        <v>28.94</v>
       </c>
       <c r="F18">
-        <v>0.65</v>
+        <v>0.31</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="H18">
-        <v>71183.67999999999</v>
+        <v>119813.13</v>
       </c>
       <c r="I18">
-        <v>43061.78</v>
+        <v>76824.28</v>
       </c>
       <c r="J18">
-        <v>18651.02</v>
+        <v>32788.73</v>
       </c>
       <c r="K18">
-        <v>13474.82</v>
+        <v>23208.65</v>
       </c>
       <c r="L18">
-        <v>0.67</v>
+        <v>1.85</v>
       </c>
       <c r="M18">
-        <v>0.079</v>
+        <v>0.8390000000000001</v>
       </c>
       <c r="N18">
-        <v>2.97</v>
+        <v>6.67</v>
       </c>
       <c r="O18">
-        <v>5.33</v>
+        <v>4.85</v>
       </c>
       <c r="P18">
-        <v>20150518</v>
+        <v>20171106</v>
       </c>
       <c r="Q18">
-        <v>24045.39</v>
+        <v>28129.02</v>
       </c>
       <c r="R18">
-        <v>1.2</v>
+        <v>2.24</v>
       </c>
       <c r="S18">
-        <v>25.21</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>-12.2</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>19.18</v>
+        <v>30.01</v>
       </c>
       <c r="V18">
-        <v>5.59</v>
+        <v>13.73</v>
       </c>
       <c r="W18">
-        <v>24940</v>
+        <v>32576</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1924,70 +1993,70 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E19">
-        <v>50.04</v>
+        <v>48.95</v>
       </c>
       <c r="F19">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G19">
-        <v>0.96</v>
+        <v>1.67</v>
       </c>
       <c r="H19">
-        <v>111192.85</v>
+        <v>225995.05</v>
       </c>
       <c r="I19">
-        <v>54894.43</v>
+        <v>107329.05</v>
       </c>
       <c r="J19">
-        <v>34169.53</v>
+        <v>96109.81</v>
       </c>
       <c r="K19">
-        <v>19093.64</v>
+        <v>34337.15</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M19">
-        <v>0.294</v>
+        <v>0.338</v>
       </c>
       <c r="N19">
-        <v>6.85</v>
+        <v>5.86</v>
       </c>
       <c r="O19">
-        <v>4.29</v>
+        <v>3.76</v>
       </c>
       <c r="P19">
-        <v>20160826</v>
+        <v>20151209</v>
       </c>
       <c r="Q19">
-        <v>31503.05</v>
+        <v>43106.8</v>
       </c>
       <c r="R19">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="S19">
-        <v>13</v>
+        <v>25.96</v>
       </c>
       <c r="T19">
-        <v>15.82</v>
+        <v>44.15</v>
       </c>
       <c r="U19">
-        <v>23.01</v>
+        <v>17.83</v>
       </c>
       <c r="V19">
-        <v>8.970000000000001</v>
+        <v>4.71</v>
       </c>
       <c r="W19">
-        <v>14744</v>
+        <v>17079</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1995,70 +2064,922 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20">
+        <v>26.06</v>
+      </c>
+      <c r="F20">
+        <v>0.49</v>
+      </c>
+      <c r="G20">
+        <v>1.97</v>
+      </c>
+      <c r="H20">
+        <v>137082.3</v>
+      </c>
+      <c r="I20">
+        <v>104136.96</v>
+      </c>
+      <c r="J20">
+        <v>21327.65</v>
+      </c>
+      <c r="K20">
+        <v>27259.3</v>
+      </c>
+      <c r="L20">
+        <v>1.38</v>
+      </c>
+      <c r="M20">
+        <v>0.519</v>
+      </c>
+      <c r="N20">
+        <v>6.25</v>
+      </c>
+      <c r="O20">
+        <v>2.88</v>
+      </c>
+      <c r="P20">
+        <v>20171106</v>
+      </c>
+      <c r="Q20">
+        <v>46077.73</v>
+      </c>
+      <c r="R20">
+        <v>2.34</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>23.25</v>
+      </c>
+      <c r="V20">
+        <v>10.74</v>
+      </c>
+      <c r="W20">
+        <v>23935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20">
-        <v>83.87</v>
-      </c>
-      <c r="F20">
-        <v>0.41</v>
-      </c>
-      <c r="G20">
-        <v>1.66</v>
-      </c>
-      <c r="H20">
-        <v>48316.95</v>
-      </c>
-      <c r="I20">
-        <v>35540.07</v>
-      </c>
-      <c r="J20">
-        <v>10152.21</v>
-      </c>
-      <c r="K20">
-        <v>6171.51</v>
-      </c>
-      <c r="L20">
-        <v>0.37</v>
-      </c>
-      <c r="M20">
-        <v>0.111</v>
-      </c>
-      <c r="N20">
-        <v>2.56</v>
-      </c>
-      <c r="O20">
-        <v>7.3</v>
-      </c>
-      <c r="P20">
-        <v>20150424</v>
-      </c>
-      <c r="Q20">
-        <v>20329.2</v>
-      </c>
-      <c r="R20">
-        <v>1.23</v>
-      </c>
-      <c r="S20">
-        <v>19.31</v>
-      </c>
-      <c r="T20">
-        <v>36.7</v>
-      </c>
-      <c r="U20">
-        <v>72.61</v>
-      </c>
-      <c r="V20">
-        <v>22.26</v>
-      </c>
-      <c r="W20">
-        <v>11250</v>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21">
+        <v>36.38</v>
+      </c>
+      <c r="F21">
+        <v>0.25</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>79577.86</v>
+      </c>
+      <c r="I21">
+        <v>62988.16</v>
+      </c>
+      <c r="J21">
+        <v>13688.32</v>
+      </c>
+      <c r="K21">
+        <v>31495.69</v>
+      </c>
+      <c r="L21">
+        <v>3.15</v>
+      </c>
+      <c r="M21">
+        <v>0.46</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>2.92</v>
+      </c>
+      <c r="P21">
+        <v>20170330</v>
+      </c>
+      <c r="Q21">
+        <v>25164.65</v>
+      </c>
+      <c r="R21">
+        <v>2.52</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>35.49</v>
+      </c>
+      <c r="V21">
+        <v>17.78</v>
+      </c>
+      <c r="W21">
+        <v>12725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22">
+        <v>28.05</v>
+      </c>
+      <c r="F22">
+        <v>0.3</v>
+      </c>
+      <c r="G22">
+        <v>1.2</v>
+      </c>
+      <c r="H22">
+        <v>143241.22</v>
+      </c>
+      <c r="I22">
+        <v>105450.75</v>
+      </c>
+      <c r="J22">
+        <v>23937.82</v>
+      </c>
+      <c r="K22">
+        <v>57120.42</v>
+      </c>
+      <c r="L22">
+        <v>4.76</v>
+      </c>
+      <c r="M22">
+        <v>1.02</v>
+      </c>
+      <c r="N22">
+        <v>9.74</v>
+      </c>
+      <c r="O22">
+        <v>2.62</v>
+      </c>
+      <c r="P22">
+        <v>20170510</v>
+      </c>
+      <c r="Q22">
+        <v>40388.53</v>
+      </c>
+      <c r="R22">
+        <v>3.37</v>
+      </c>
+      <c r="S22">
+        <v>17.66</v>
+      </c>
+      <c r="T22">
+        <v>-2.43</v>
+      </c>
+      <c r="U22">
+        <v>31.62</v>
+      </c>
+      <c r="V22">
+        <v>12.82</v>
+      </c>
+      <c r="W22">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23">
+        <v>46.08</v>
+      </c>
+      <c r="F23">
+        <v>0.53</v>
+      </c>
+      <c r="G23">
+        <v>2.12</v>
+      </c>
+      <c r="H23">
+        <v>68500.89999999999</v>
+      </c>
+      <c r="I23">
+        <v>39910.06</v>
+      </c>
+      <c r="J23">
+        <v>21818.48</v>
+      </c>
+      <c r="K23">
+        <v>21587.07</v>
+      </c>
+      <c r="L23">
+        <v>1.02</v>
+      </c>
+      <c r="M23">
+        <v>0.218</v>
+      </c>
+      <c r="N23">
+        <v>2.92</v>
+      </c>
+      <c r="O23">
+        <v>4.58</v>
+      </c>
+      <c r="P23">
+        <v>20151209</v>
+      </c>
+      <c r="Q23">
+        <v>16011.15</v>
+      </c>
+      <c r="R23">
+        <v>0.75</v>
+      </c>
+      <c r="S23">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="T23">
+        <v>-6.12</v>
+      </c>
+      <c r="U23">
+        <v>35.23</v>
+      </c>
+      <c r="V23">
+        <v>19.8</v>
+      </c>
+      <c r="W23">
+        <v>14332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24">
+        <v>51.09</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>99979.47</v>
+      </c>
+      <c r="I24">
+        <v>59892.8</v>
+      </c>
+      <c r="J24">
+        <v>22454.9</v>
+      </c>
+      <c r="K24">
+        <v>30776.59</v>
+      </c>
+      <c r="L24">
+        <v>1.54</v>
+      </c>
+      <c r="M24">
+        <v>0.262</v>
+      </c>
+      <c r="N24">
+        <v>4.4</v>
+      </c>
+      <c r="O24">
+        <v>4.06</v>
+      </c>
+      <c r="P24">
+        <v>20150302</v>
+      </c>
+      <c r="Q24">
+        <v>33888.98</v>
+      </c>
+      <c r="R24">
+        <v>1.69</v>
+      </c>
+      <c r="S24">
+        <v>22.77</v>
+      </c>
+      <c r="T24">
+        <v>-13.24</v>
+      </c>
+      <c r="U24">
+        <v>34.99</v>
+      </c>
+      <c r="V24">
+        <v>11.7</v>
+      </c>
+      <c r="W24">
+        <v>17490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25">
+        <v>29.26</v>
+      </c>
+      <c r="F25">
+        <v>0.22</v>
+      </c>
+      <c r="G25">
+        <v>0.9</v>
+      </c>
+      <c r="H25">
+        <v>96922.53</v>
+      </c>
+      <c r="I25">
+        <v>61072.35</v>
+      </c>
+      <c r="J25">
+        <v>28707.14</v>
+      </c>
+      <c r="K25">
+        <v>32178.18</v>
+      </c>
+      <c r="L25">
+        <v>3.59</v>
+      </c>
+      <c r="M25">
+        <v>0.85</v>
+      </c>
+      <c r="N25">
+        <v>8.17</v>
+      </c>
+      <c r="O25">
+        <v>3.27</v>
+      </c>
+      <c r="P25">
+        <v>20170615</v>
+      </c>
+      <c r="Q25">
+        <v>26365.56</v>
+      </c>
+      <c r="R25">
+        <v>2.94</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>32.28</v>
+      </c>
+      <c r="V25">
+        <v>10.34</v>
+      </c>
+      <c r="W25">
+        <v>10311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26">
+        <v>60.27</v>
+      </c>
+      <c r="F26">
+        <v>0.55</v>
+      </c>
+      <c r="G26">
+        <v>1.27</v>
+      </c>
+      <c r="H26">
+        <v>130335.77</v>
+      </c>
+      <c r="I26">
+        <v>102960.28</v>
+      </c>
+      <c r="J26">
+        <v>17470.92</v>
+      </c>
+      <c r="K26">
+        <v>41709.8</v>
+      </c>
+      <c r="L26">
+        <v>3.28</v>
+      </c>
+      <c r="M26">
+        <v>0.235</v>
+      </c>
+      <c r="N26">
+        <v>8.67</v>
+      </c>
+      <c r="O26">
+        <v>2.18</v>
+      </c>
+      <c r="P26">
+        <v>20161207</v>
+      </c>
+      <c r="Q26">
+        <v>51027.87</v>
+      </c>
+      <c r="R26">
+        <v>4.02</v>
+      </c>
+      <c r="S26">
+        <v>21.82</v>
+      </c>
+      <c r="T26">
+        <v>-48.89</v>
+      </c>
+      <c r="U26">
+        <v>16.59</v>
+      </c>
+      <c r="V26">
+        <v>4.51</v>
+      </c>
+      <c r="W26">
+        <v>10945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27">
+        <v>103.3</v>
+      </c>
+      <c r="F27">
+        <v>1.24</v>
+      </c>
+      <c r="G27">
+        <v>2.4</v>
+      </c>
+      <c r="H27">
+        <v>105907.11</v>
+      </c>
+      <c r="I27">
+        <v>62928.42</v>
+      </c>
+      <c r="J27">
+        <v>27378.2</v>
+      </c>
+      <c r="K27">
+        <v>20865.07</v>
+      </c>
+      <c r="L27">
+        <v>0.87</v>
+      </c>
+      <c r="M27">
+        <v>0.17</v>
+      </c>
+      <c r="N27">
+        <v>3.7</v>
+      </c>
+      <c r="O27">
+        <v>6.33</v>
+      </c>
+      <c r="P27">
+        <v>20150422</v>
+      </c>
+      <c r="Q27">
+        <v>40228.82</v>
+      </c>
+      <c r="R27">
+        <v>1.68</v>
+      </c>
+      <c r="S27">
+        <v>14.09</v>
+      </c>
+      <c r="T27">
+        <v>10.56</v>
+      </c>
+      <c r="U27">
+        <v>41.64</v>
+      </c>
+      <c r="V27">
+        <v>13.42</v>
+      </c>
+      <c r="W27">
+        <v>16337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28">
+        <v>35.22</v>
+      </c>
+      <c r="F28">
+        <v>0.28</v>
+      </c>
+      <c r="G28">
+        <v>1.11</v>
+      </c>
+      <c r="H28">
+        <v>98162.64999999999</v>
+      </c>
+      <c r="I28">
+        <v>75299.63</v>
+      </c>
+      <c r="J28">
+        <v>13863.55</v>
+      </c>
+      <c r="K28">
+        <v>45923.28</v>
+      </c>
+      <c r="L28">
+        <v>4.13</v>
+      </c>
+      <c r="M28">
+        <v>0.64</v>
+      </c>
+      <c r="N28">
+        <v>7.28</v>
+      </c>
+      <c r="O28">
+        <v>3.54</v>
+      </c>
+      <c r="P28">
+        <v>20170515</v>
+      </c>
+      <c r="Q28">
+        <v>18686.92</v>
+      </c>
+      <c r="R28">
+        <v>1.68</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>31.37</v>
+      </c>
+      <c r="V28">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="W28">
+        <v>16943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29">
+        <v>29.82</v>
+      </c>
+      <c r="F29">
+        <v>0.73</v>
+      </c>
+      <c r="G29">
+        <v>1.11</v>
+      </c>
+      <c r="H29">
+        <v>117426.17</v>
+      </c>
+      <c r="I29">
+        <v>27950.58</v>
+      </c>
+      <c r="J29">
+        <v>66937.64999999999</v>
+      </c>
+      <c r="K29">
+        <v>33329.37</v>
+      </c>
+      <c r="L29">
+        <v>3.01</v>
+      </c>
+      <c r="M29">
+        <v>0.695</v>
+      </c>
+      <c r="N29">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>20150326</v>
+      </c>
+      <c r="Q29">
+        <v>51377.55</v>
+      </c>
+      <c r="R29">
+        <v>4.64</v>
+      </c>
+      <c r="S29">
+        <v>11.26</v>
+      </c>
+      <c r="T29">
+        <v>16.74</v>
+      </c>
+      <c r="U29">
+        <v>49.26</v>
+      </c>
+      <c r="V29">
+        <v>22.24</v>
+      </c>
+      <c r="W29">
+        <v>13195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>48.29</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
+        <v>0.8</v>
+      </c>
+      <c r="H30">
+        <v>57712.18</v>
+      </c>
+      <c r="I30">
+        <v>27994.39</v>
+      </c>
+      <c r="J30">
+        <v>11581.01</v>
+      </c>
+      <c r="K30">
+        <v>10501.5</v>
+      </c>
+      <c r="L30">
+        <v>1.31</v>
+      </c>
+      <c r="M30">
+        <v>1.082</v>
+      </c>
+      <c r="N30">
+        <v>5.68</v>
+      </c>
+      <c r="O30">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="P30">
+        <v>20180302</v>
+      </c>
+      <c r="Q30">
+        <v>16202.45</v>
+      </c>
+      <c r="R30">
+        <v>2.03</v>
+      </c>
+      <c r="S30">
+        <v>6.92</v>
+      </c>
+      <c r="T30">
+        <v>27.64</v>
+      </c>
+      <c r="U30">
+        <v>26.26</v>
+      </c>
+      <c r="V30">
+        <v>12.94</v>
+      </c>
+      <c r="W30">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <v>32.2</v>
+      </c>
+      <c r="F31">
+        <v>0.44</v>
+      </c>
+      <c r="G31">
+        <v>1.74</v>
+      </c>
+      <c r="H31">
+        <v>183306.63</v>
+      </c>
+      <c r="I31">
+        <v>160272.52</v>
+      </c>
+      <c r="J31">
+        <v>7020.49</v>
+      </c>
+      <c r="K31">
+        <v>86962.31</v>
+      </c>
+      <c r="L31">
+        <v>4.99</v>
+      </c>
+      <c r="M31">
+        <v>0.62</v>
+      </c>
+      <c r="N31">
+        <v>9.51</v>
+      </c>
+      <c r="O31">
+        <v>2.55</v>
+      </c>
+      <c r="P31">
+        <v>20170313</v>
+      </c>
+      <c r="Q31">
+        <v>56125.71</v>
+      </c>
+      <c r="R31">
+        <v>3.22</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>59.07</v>
+      </c>
+      <c r="V31">
+        <v>13.69</v>
+      </c>
+      <c r="W31">
+        <v>26186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32">
+        <v>23.22</v>
+      </c>
+      <c r="F32">
+        <v>0.61</v>
+      </c>
+      <c r="G32">
+        <v>1.06</v>
+      </c>
+      <c r="H32">
+        <v>80548.86</v>
+      </c>
+      <c r="I32">
+        <v>66402.81</v>
+      </c>
+      <c r="J32">
+        <v>8994.620000000001</v>
+      </c>
+      <c r="K32">
+        <v>41889.96</v>
+      </c>
+      <c r="L32">
+        <v>3.95</v>
+      </c>
+      <c r="M32">
+        <v>0.86</v>
+      </c>
+      <c r="N32">
+        <v>7.03</v>
+      </c>
+      <c r="O32">
+        <v>3.7</v>
+      </c>
+      <c r="P32">
+        <v>20170120</v>
+      </c>
+      <c r="Q32">
+        <v>18146.09</v>
+      </c>
+      <c r="R32">
+        <v>1.71</v>
+      </c>
+      <c r="S32">
+        <v>48.17</v>
+      </c>
+      <c r="T32">
+        <v>35.19</v>
+      </c>
+      <c r="U32">
+        <v>44.03</v>
+      </c>
+      <c r="V32">
+        <v>26.58</v>
+      </c>
+      <c r="W32">
+        <v>9178</v>
       </c>
     </row>
   </sheetData>
